--- a/PG.xlsx
+++ b/PG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DA107F-C68E-4D5C-98AE-3DD1C58A55C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7E61E-7201-4910-9D5B-4EA06495B695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t>Абсолютная погрешность</t>
   </si>
   <si>
-    <t>бар</t>
-  </si>
-  <si>
     <t>Плотность измеряемой среды</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Шкала прибора</t>
+  </si>
+  <si>
+    <t>кПа</t>
   </si>
 </sst>
 </file>
@@ -482,71 +482,71 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -953,8 +953,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,447 +968,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="19.5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="9"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="9"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="31"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="9"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" ht="45" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A30:D30"/>
@@ -1422,32 +1448,6 @@
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A23:D23"/>
   </mergeCells>
